--- a/Econ_Models/model_data.xlsx
+++ b/Econ_Models/model_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\lib\Econ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\lib\Econ\Econ_Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368FCAEB-DAD0-4F80-89C6-F83B3C7D0EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D99985-56D1-4923-87C8-DF25DE4E2161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10428" xr2:uid="{AA705240-1126-4E22-A905-57809D3CBB02}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="243">
   <si>
     <t>Department</t>
   </si>
@@ -979,6 +979,69 @@
   </si>
   <si>
     <t>BEIS</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communications </t>
+  </si>
+  <si>
+    <t>Corporate Finance</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Inspector of Education and Training</t>
+  </si>
+  <si>
+    <t>Intelligence Analysis</t>
+  </si>
+  <si>
+    <t>Internal Audit</t>
+  </si>
+  <si>
+    <t>Knowledge and information Management</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Planning Inspectors</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Project Delivery</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Science and Engineering</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Research </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax </t>
+  </si>
+  <si>
+    <t>Veterinarian</t>
   </si>
 </sst>
 </file>
@@ -1554,16 +1617,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="16" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1576,10 +1629,18 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="16" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1904,11 +1965,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DAD1C3-AE58-44DB-B894-FA5DEBBFC8F7}">
-  <dimension ref="A1:AQ15"/>
+  <dimension ref="A1:BM15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1916,1712 +1977,2570 @@
     <col min="1" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="53.4">
+    <row r="1" spans="1:65" ht="79.8">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="R1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="73" t="s">
+      <c r="AG1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="AJ1" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="73" t="s">
+      <c r="AK1" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="AL1" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="AM1" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="AN1" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="S1" s="74" t="s">
+      <c r="AO1" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="AP1" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="U1" s="73" t="s">
+      <c r="AQ1" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="V1" s="73" t="s">
+      <c r="AR1" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="W1" s="73" t="s">
+      <c r="AS1" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="X1" s="73" t="s">
+      <c r="AT1" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="Y1" s="73" t="s">
+      <c r="AU1" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="Z1" s="73" t="s">
+      <c r="AV1" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="AA1" s="74" t="s">
+      <c r="AW1" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="AB1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="73" t="s">
+      <c r="AX1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="AD1" s="73" t="s">
+      <c r="AZ1" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="73" t="s">
+      <c r="BA1" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="AF1" s="73" t="s">
+      <c r="BB1" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="AG1" s="73" t="s">
+      <c r="BC1" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="AH1" s="73" t="s">
+      <c r="BD1" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="AI1" s="74" t="s">
+      <c r="BE1" s="71" t="s">
         <v>180</v>
       </c>
-      <c r="AJ1" s="75" t="s">
+      <c r="BF1" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="AK1" s="73" t="s">
+      <c r="BG1" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="AL1" s="73" t="s">
+      <c r="BH1" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="AM1" s="73" t="s">
+      <c r="BI1" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="AN1" s="73" t="s">
+      <c r="BJ1" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="AO1" s="73" t="s">
+      <c r="BK1" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="AP1" s="73" t="s">
+      <c r="BL1" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="AQ1" s="74" t="s">
+      <c r="BM1" s="71" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:65">
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="23">
         <v>16</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14">
+        <v>0</v>
+      </c>
+      <c r="X2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="65">
+        <v>2260</v>
+      </c>
+      <c r="AF2" s="65">
+        <v>2260</v>
+      </c>
+      <c r="AG2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="68">
-        <v>0</v>
-      </c>
-      <c r="E2" s="68">
-        <v>0</v>
-      </c>
-      <c r="F2" s="68">
-        <v>0</v>
-      </c>
-      <c r="G2" s="68">
-        <v>0</v>
-      </c>
-      <c r="H2" s="68">
-        <v>0</v>
-      </c>
-      <c r="I2" s="68">
-        <v>0</v>
-      </c>
-      <c r="J2" s="76">
-        <v>2260</v>
-      </c>
-      <c r="K2" s="76">
-        <v>2260</v>
-      </c>
-      <c r="L2" s="23" t="s">
+      <c r="AH2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="27">
+      <c r="AI2" s="27">
         <v>4702</v>
       </c>
-      <c r="N2" s="27">
+      <c r="AJ2" s="27">
         <v>3460</v>
       </c>
-      <c r="O2" s="27">
+      <c r="AK2" s="27">
         <v>3029</v>
       </c>
-      <c r="P2" s="27">
+      <c r="AL2" s="27">
         <v>2927</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="AM2" s="27">
         <v>3616</v>
       </c>
-      <c r="R2" s="27">
+      <c r="AN2" s="27">
         <v>3761</v>
       </c>
-      <c r="S2" s="28">
+      <c r="AO2" s="28">
         <v>3327</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="AP2" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="U2" s="27">
+      <c r="AQ2" s="27">
         <v>-5207</v>
       </c>
-      <c r="V2" s="27">
+      <c r="AR2" s="27">
         <v>-264</v>
       </c>
-      <c r="W2" s="27">
+      <c r="AS2" s="27">
         <v>5680</v>
       </c>
-      <c r="X2" s="27">
+      <c r="AT2" s="27">
         <v>6457</v>
       </c>
-      <c r="Y2" s="27">
+      <c r="AU2" s="27">
         <v>6979</v>
       </c>
-      <c r="Z2" s="27">
+      <c r="AV2" s="27">
         <v>9092</v>
       </c>
-      <c r="AA2" s="28">
+      <c r="AW2" s="28">
         <v>7262</v>
       </c>
-      <c r="AB2" s="23" t="s">
+      <c r="AX2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="27">
+      <c r="AY2" s="27">
         <v>4991</v>
       </c>
-      <c r="AD2" s="27">
+      <c r="AZ2" s="27">
         <v>3626</v>
       </c>
-      <c r="AE2" s="27">
+      <c r="BA2" s="27">
         <v>3149</v>
       </c>
-      <c r="AF2" s="27">
+      <c r="BB2" s="27">
         <v>2977</v>
       </c>
-      <c r="AG2" s="27">
+      <c r="BC2" s="27">
         <v>3616</v>
       </c>
-      <c r="AH2" s="27">
+      <c r="BD2" s="27">
         <v>3705</v>
       </c>
-      <c r="AI2" s="28">
+      <c r="BE2" s="28">
         <v>3227</v>
       </c>
-      <c r="AJ2" s="26" t="s">
+      <c r="BF2" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="AK2" s="27">
+      <c r="BG2" s="27">
         <v>-5528</v>
       </c>
-      <c r="AL2" s="27">
+      <c r="BH2" s="27">
         <v>-276</v>
       </c>
-      <c r="AM2" s="27">
+      <c r="BI2" s="27">
         <v>5906</v>
       </c>
-      <c r="AN2" s="27">
+      <c r="BJ2" s="27">
         <v>6567</v>
       </c>
-      <c r="AO2" s="27">
+      <c r="BK2" s="27">
         <v>6979</v>
       </c>
-      <c r="AP2" s="27">
+      <c r="BL2" s="27">
         <v>8956</v>
       </c>
-      <c r="AQ2" s="28">
+      <c r="BM2" s="28">
         <v>7043</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:65">
       <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="23">
         <v>15</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="14">
+        <v>210</v>
+      </c>
+      <c r="D3" s="14">
+        <v>160</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="65">
+        <v>2820</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="65">
+        <v>4200</v>
+      </c>
+      <c r="I3" s="14">
+        <v>600</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <v>170</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0</v>
+      </c>
+      <c r="P3" s="65">
+        <v>73680</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14">
+        <v>0</v>
+      </c>
+      <c r="S3" s="14">
+        <v>0</v>
+      </c>
+      <c r="T3" s="65">
+        <v>1010</v>
+      </c>
+      <c r="U3" s="65">
+        <v>1210</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="65">
+        <v>84050</v>
+      </c>
+      <c r="AG3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="76">
-        <v>2820</v>
-      </c>
-      <c r="E3" s="68">
-        <v>0</v>
-      </c>
-      <c r="F3" s="76">
-        <v>4200</v>
-      </c>
-      <c r="G3" s="76">
-        <v>73680</v>
-      </c>
-      <c r="H3" s="68">
-        <v>0</v>
-      </c>
-      <c r="I3" s="68">
-        <v>0</v>
-      </c>
-      <c r="J3" s="68">
-        <v>0</v>
-      </c>
-      <c r="K3" s="76">
-        <v>84050</v>
-      </c>
-      <c r="L3" s="23" t="s">
+      <c r="AH3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="27">
+      <c r="AI3" s="27">
         <v>7606</v>
       </c>
-      <c r="N3" s="27">
+      <c r="AJ3" s="27">
         <v>7145</v>
       </c>
-      <c r="O3" s="27">
+      <c r="AK3" s="27">
         <v>6473</v>
       </c>
-      <c r="P3" s="27">
+      <c r="AL3" s="27">
         <v>6161</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="AM3" s="27">
         <v>6108</v>
       </c>
-      <c r="R3" s="27">
+      <c r="AN3" s="27">
         <v>6150</v>
       </c>
-      <c r="S3" s="28">
+      <c r="AO3" s="28">
         <v>5583</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="AP3" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="U3" s="27">
+      <c r="AQ3" s="27">
         <v>163072</v>
       </c>
-      <c r="V3" s="27">
+      <c r="AR3" s="27">
         <v>167639</v>
       </c>
-      <c r="W3" s="27">
+      <c r="AS3" s="27">
         <v>173400</v>
       </c>
-      <c r="X3" s="27">
+      <c r="AT3" s="27">
         <v>172921</v>
       </c>
-      <c r="Y3" s="27">
+      <c r="AU3" s="27">
         <v>177252</v>
       </c>
-      <c r="Z3" s="27">
+      <c r="AV3" s="27">
         <v>183307</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AW3" s="28">
         <v>184729</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AX3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="27">
+      <c r="AY3" s="27">
         <v>8075</v>
       </c>
-      <c r="AD3" s="27">
+      <c r="AZ3" s="27">
         <v>7488</v>
       </c>
-      <c r="AE3" s="27">
+      <c r="BA3" s="27">
         <v>6730</v>
       </c>
-      <c r="AF3" s="27">
+      <c r="BB3" s="27">
         <v>6266</v>
       </c>
-      <c r="AG3" s="27">
+      <c r="BC3" s="27">
         <v>6108</v>
       </c>
-      <c r="AH3" s="27">
+      <c r="BD3" s="27">
         <v>6058</v>
       </c>
-      <c r="AI3" s="28">
+      <c r="BE3" s="28">
         <v>5414</v>
       </c>
-      <c r="AJ3" s="26" t="s">
+      <c r="BF3" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="AK3" s="27">
+      <c r="BG3" s="27">
         <v>173112</v>
       </c>
-      <c r="AL3" s="27">
+      <c r="BH3" s="27">
         <v>175702</v>
       </c>
-      <c r="AM3" s="27">
+      <c r="BI3" s="27">
         <v>180299</v>
       </c>
-      <c r="AN3" s="27">
+      <c r="BJ3" s="27">
         <v>175870</v>
       </c>
-      <c r="AO3" s="27">
+      <c r="BK3" s="27">
         <v>177252</v>
       </c>
-      <c r="AP3" s="27">
+      <c r="BL3" s="27">
         <v>180567</v>
       </c>
-      <c r="AQ3" s="28">
+      <c r="BM3" s="28">
         <v>179155</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:65">
       <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="23">
         <v>13</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="14">
+        <v>60</v>
+      </c>
+      <c r="D4" s="14">
+        <v>70</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>20</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>140</v>
+      </c>
+      <c r="I4" s="14">
+        <v>30</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>50</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>190</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0</v>
+      </c>
+      <c r="S4" s="14">
+        <v>0</v>
+      </c>
+      <c r="T4" s="14">
+        <v>610</v>
+      </c>
+      <c r="U4" s="14">
+        <v>20</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>140</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="65">
+        <v>1360</v>
+      </c>
+      <c r="AG4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="68">
-        <v>20</v>
-      </c>
-      <c r="E4" s="68">
-        <v>0</v>
-      </c>
-      <c r="F4" s="68">
-        <v>140</v>
-      </c>
-      <c r="G4" s="68">
-        <v>190</v>
-      </c>
-      <c r="H4" s="68">
-        <v>0</v>
-      </c>
-      <c r="I4" s="68">
-        <v>140</v>
-      </c>
-      <c r="J4" s="68">
-        <v>0</v>
-      </c>
-      <c r="K4" s="76">
-        <v>1360</v>
-      </c>
-      <c r="L4" s="23" t="s">
+      <c r="AH4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="27">
+      <c r="AI4" s="27">
         <v>105478</v>
       </c>
-      <c r="N4" s="27">
+      <c r="AJ4" s="27">
         <v>109534</v>
       </c>
-      <c r="O4" s="27">
+      <c r="AK4" s="27">
         <v>113710</v>
       </c>
-      <c r="P4" s="27">
+      <c r="AL4" s="27">
         <v>117031</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="AM4" s="27">
         <v>120650</v>
       </c>
-      <c r="R4" s="27">
+      <c r="AN4" s="27">
         <v>123518</v>
       </c>
-      <c r="S4" s="28">
+      <c r="AO4" s="28">
         <v>125682</v>
       </c>
-      <c r="T4" s="26" t="s">
+      <c r="AP4" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="U4" s="27">
+      <c r="AQ4" s="27">
         <v>18194</v>
       </c>
-      <c r="V4" s="27">
+      <c r="AR4" s="27">
         <v>21952</v>
       </c>
-      <c r="W4" s="27">
+      <c r="AS4" s="27">
         <v>48530</v>
       </c>
-      <c r="X4" s="27">
+      <c r="AT4" s="27">
         <v>27782</v>
       </c>
-      <c r="Y4" s="27">
+      <c r="AU4" s="27">
         <v>39664</v>
       </c>
-      <c r="Z4" s="27">
+      <c r="AV4" s="27">
         <v>36787</v>
       </c>
-      <c r="AA4" s="28">
+      <c r="AW4" s="28">
         <v>36557</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AX4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="27">
+      <c r="AY4" s="27">
         <v>111972</v>
       </c>
-      <c r="AD4" s="27">
+      <c r="AZ4" s="27">
         <v>114802</v>
       </c>
-      <c r="AE4" s="27">
+      <c r="BA4" s="27">
         <v>118234</v>
       </c>
-      <c r="AF4" s="27">
+      <c r="BB4" s="27">
         <v>119027</v>
       </c>
-      <c r="AG4" s="27">
+      <c r="BC4" s="27">
         <v>120650</v>
       </c>
-      <c r="AH4" s="27">
+      <c r="BD4" s="27">
         <v>121672</v>
       </c>
-      <c r="AI4" s="28">
+      <c r="BE4" s="28">
         <v>121889</v>
       </c>
-      <c r="AJ4" s="26" t="s">
+      <c r="BF4" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="AK4" s="27">
+      <c r="BG4" s="27">
         <v>19314</v>
       </c>
-      <c r="AL4" s="27">
+      <c r="BH4" s="27">
         <v>23008</v>
       </c>
-      <c r="AM4" s="27">
+      <c r="BI4" s="27">
         <v>50461</v>
       </c>
-      <c r="AN4" s="27">
+      <c r="BJ4" s="27">
         <v>28256</v>
       </c>
-      <c r="AO4" s="27">
+      <c r="BK4" s="27">
         <v>39664</v>
       </c>
-      <c r="AP4" s="27">
+      <c r="BL4" s="27">
         <v>36238</v>
       </c>
-      <c r="AQ4" s="28">
+      <c r="BM4" s="28">
         <v>35454</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:65">
       <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="23">
         <v>11</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="14">
+        <v>830</v>
+      </c>
+      <c r="D5" s="14">
+        <v>490</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="65">
+        <v>1430</v>
+      </c>
+      <c r="G5" s="14">
+        <v>10</v>
+      </c>
+      <c r="H5" s="65">
+        <v>1520</v>
+      </c>
+      <c r="I5" s="65">
+        <v>1490</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
+        <v>820</v>
+      </c>
+      <c r="L5" s="14">
+        <v>160</v>
+      </c>
+      <c r="M5" s="14">
+        <v>790</v>
+      </c>
+      <c r="N5" s="14">
+        <v>50</v>
+      </c>
+      <c r="O5" s="65">
+        <v>1330</v>
+      </c>
+      <c r="P5" s="14">
+        <v>710</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>80</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+      <c r="S5" s="14">
+        <v>0</v>
+      </c>
+      <c r="T5" s="14">
+        <v>900</v>
+      </c>
+      <c r="U5" s="65">
+        <v>3210</v>
+      </c>
+      <c r="V5" s="65">
+        <v>2530</v>
+      </c>
+      <c r="W5" s="14">
+        <v>20</v>
+      </c>
+      <c r="X5" s="65">
+        <v>1970</v>
+      </c>
+      <c r="Y5" s="65">
+        <v>5790</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>120</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="65">
+        <v>12210</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>60</v>
+      </c>
+      <c r="AF5" s="65">
+        <v>36500</v>
+      </c>
+      <c r="AG5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="76">
-        <v>1430</v>
-      </c>
-      <c r="E5" s="68">
-        <v>10</v>
-      </c>
-      <c r="F5" s="76">
-        <v>1520</v>
-      </c>
-      <c r="G5" s="68">
-        <v>710</v>
-      </c>
-      <c r="H5" s="68">
-        <v>80</v>
-      </c>
-      <c r="I5" s="68">
-        <v>120</v>
-      </c>
-      <c r="J5" s="68">
-        <v>60</v>
-      </c>
-      <c r="K5" s="76">
-        <v>36500</v>
-      </c>
-      <c r="L5" s="23" t="s">
+      <c r="AH5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="27">
+      <c r="AI5" s="27">
         <v>35536</v>
       </c>
-      <c r="N5" s="27">
+      <c r="AJ5" s="27">
         <v>34155</v>
       </c>
-      <c r="O5" s="27">
+      <c r="AK5" s="27">
         <v>34424</v>
       </c>
-      <c r="P5" s="27">
+      <c r="AL5" s="27">
         <v>35423</v>
       </c>
-      <c r="Q5" s="27">
+      <c r="AM5" s="27">
         <v>34199</v>
       </c>
-      <c r="R5" s="27">
+      <c r="AN5" s="27">
         <v>36708</v>
       </c>
-      <c r="S5" s="28">
+      <c r="AO5" s="28">
         <v>37452</v>
       </c>
-      <c r="T5" s="26" t="s">
+      <c r="AP5" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="27">
+      <c r="AQ5" s="27">
         <v>6377</v>
       </c>
-      <c r="V5" s="27">
+      <c r="AR5" s="27">
         <v>8311</v>
       </c>
-      <c r="W5" s="27">
+      <c r="AS5" s="27">
         <v>12020</v>
       </c>
-      <c r="X5" s="27">
+      <c r="AT5" s="27">
         <v>5125</v>
       </c>
-      <c r="Y5" s="27">
+      <c r="AU5" s="27">
         <v>16637</v>
       </c>
-      <c r="Z5" s="27">
+      <c r="AV5" s="27">
         <v>7926</v>
       </c>
-      <c r="AA5" s="28">
+      <c r="AW5" s="28">
         <v>6663</v>
       </c>
-      <c r="AB5" s="23" t="s">
+      <c r="AX5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AC5" s="27">
+      <c r="AY5" s="27">
         <v>37724</v>
       </c>
-      <c r="AD5" s="27">
+      <c r="AZ5" s="27">
         <v>35798</v>
       </c>
-      <c r="AE5" s="27">
+      <c r="BA5" s="27">
         <v>35794</v>
       </c>
-      <c r="AF5" s="27">
+      <c r="BB5" s="27">
         <v>36027</v>
       </c>
-      <c r="AG5" s="27">
+      <c r="BC5" s="27">
         <v>34199</v>
       </c>
-      <c r="AH5" s="27">
+      <c r="BD5" s="27">
         <v>36159</v>
       </c>
-      <c r="AI5" s="28">
+      <c r="BE5" s="28">
         <v>36322</v>
       </c>
-      <c r="AJ5" s="26" t="s">
+      <c r="BF5" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="AK5" s="27">
+      <c r="BG5" s="27">
         <v>6770</v>
       </c>
-      <c r="AL5" s="27">
+      <c r="BH5" s="27">
         <v>8710</v>
       </c>
-      <c r="AM5" s="27">
+      <c r="BI5" s="27">
         <v>12499</v>
       </c>
-      <c r="AN5" s="27">
+      <c r="BJ5" s="27">
         <v>5213</v>
       </c>
-      <c r="AO5" s="27">
+      <c r="BK5" s="27">
         <v>16637</v>
       </c>
-      <c r="AP5" s="27">
+      <c r="BL5" s="27">
         <v>7807</v>
       </c>
-      <c r="AQ5" s="28">
+      <c r="BM5" s="28">
         <v>6462</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:65">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="23">
         <v>9</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="14">
+        <v>60</v>
+      </c>
+      <c r="D6" s="14">
+        <v>100</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>180</v>
+      </c>
+      <c r="G6" s="14">
+        <v>10</v>
+      </c>
+      <c r="H6" s="14">
+        <v>180</v>
+      </c>
+      <c r="I6" s="14">
+        <v>90</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>20</v>
+      </c>
+      <c r="M6" s="14">
+        <v>40</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>10</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
+      <c r="T6" s="65">
+        <v>1020</v>
+      </c>
+      <c r="U6" s="14">
+        <v>50</v>
+      </c>
+      <c r="V6" s="14">
+        <v>30</v>
+      </c>
+      <c r="W6" s="14">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="65">
+        <v>1940</v>
+      </c>
+      <c r="AG6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="68">
-        <v>180</v>
-      </c>
-      <c r="E6" s="68">
-        <v>10</v>
-      </c>
-      <c r="F6" s="68">
-        <v>180</v>
-      </c>
-      <c r="G6" s="68">
-        <v>40</v>
-      </c>
-      <c r="H6" s="68">
-        <v>10</v>
-      </c>
-      <c r="I6" s="68">
-        <v>20</v>
-      </c>
-      <c r="J6" s="68">
-        <v>0</v>
-      </c>
-      <c r="K6" s="76">
-        <v>1940</v>
-      </c>
-      <c r="L6" s="23" t="s">
+      <c r="AH6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="27">
+      <c r="AI6" s="27">
         <v>1883</v>
       </c>
-      <c r="N6" s="27">
+      <c r="AJ6" s="27">
         <v>1856</v>
       </c>
-      <c r="O6" s="27">
+      <c r="AK6" s="27">
         <v>1737</v>
       </c>
-      <c r="P6" s="27">
+      <c r="AL6" s="27">
         <v>1744</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="AM6" s="27">
         <v>1848</v>
       </c>
-      <c r="R6" s="27">
+      <c r="AN6" s="27">
         <v>1809</v>
       </c>
-      <c r="S6" s="28">
+      <c r="AO6" s="28">
         <v>1723</v>
       </c>
-      <c r="T6" s="26" t="s">
+      <c r="AP6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="U6" s="27">
+      <c r="AQ6" s="27">
         <v>-92</v>
       </c>
-      <c r="V6" s="27">
+      <c r="AR6" s="27">
         <v>78</v>
       </c>
-      <c r="W6" s="27">
+      <c r="AS6" s="27">
         <v>391</v>
       </c>
-      <c r="X6" s="27">
+      <c r="AT6" s="27">
         <v>86</v>
       </c>
-      <c r="Y6" s="27">
+      <c r="AU6" s="27">
         <v>-195</v>
       </c>
-      <c r="Z6" s="27">
+      <c r="AV6" s="27">
         <v>214</v>
       </c>
-      <c r="AA6" s="28">
+      <c r="AW6" s="28">
         <v>179</v>
       </c>
-      <c r="AB6" s="23" t="s">
+      <c r="AX6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AC6" s="27">
+      <c r="AY6" s="27">
         <v>1999</v>
       </c>
-      <c r="AD6" s="27">
+      <c r="AZ6" s="27">
         <v>1945</v>
       </c>
-      <c r="AE6" s="27">
+      <c r="BA6" s="27">
         <v>1806</v>
       </c>
-      <c r="AF6" s="27">
+      <c r="BB6" s="27">
         <v>1773</v>
       </c>
-      <c r="AG6" s="27">
+      <c r="BC6" s="27">
         <v>1848</v>
       </c>
-      <c r="AH6" s="27">
+      <c r="BD6" s="27">
         <v>1782</v>
       </c>
-      <c r="AI6" s="28">
+      <c r="BE6" s="28">
         <v>1671</v>
       </c>
-      <c r="AJ6" s="26" t="s">
+      <c r="BF6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="AK6" s="27">
+      <c r="BG6" s="27">
         <v>-98</v>
       </c>
-      <c r="AL6" s="27">
+      <c r="BH6" s="27">
         <v>81</v>
       </c>
-      <c r="AM6" s="27">
+      <c r="BI6" s="27">
         <v>406</v>
       </c>
-      <c r="AN6" s="27">
+      <c r="BJ6" s="27">
         <v>88</v>
       </c>
-      <c r="AO6" s="27">
+      <c r="BK6" s="27">
         <v>-195</v>
       </c>
-      <c r="AP6" s="27">
+      <c r="BL6" s="27">
         <v>211</v>
       </c>
-      <c r="AQ6" s="28">
+      <c r="BM6" s="28">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:65">
       <c r="A7" s="23" t="s">
         <v>221</v>
       </c>
       <c r="B7" s="23">
         <v>9</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="14">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14">
+        <v>100</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>40</v>
+      </c>
+      <c r="G7" s="14">
+        <v>120</v>
+      </c>
+      <c r="H7" s="14">
+        <v>130</v>
+      </c>
+      <c r="I7" s="14">
+        <v>50</v>
+      </c>
+      <c r="J7" s="14">
+        <v>10</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>20</v>
+      </c>
+      <c r="N7" s="14">
+        <v>200</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>140</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>30</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0</v>
+      </c>
+      <c r="S7" s="14">
+        <v>0</v>
+      </c>
+      <c r="T7" s="65">
+        <v>1390</v>
+      </c>
+      <c r="U7" s="14">
+        <v>30</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14">
+        <v>0</v>
+      </c>
+      <c r="X7" s="14">
+        <v>70</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>310</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="65">
+        <v>2740</v>
+      </c>
+      <c r="AG7" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="68">
-        <v>40</v>
-      </c>
-      <c r="E7" s="68">
-        <v>120</v>
-      </c>
-      <c r="F7" s="68">
-        <v>130</v>
-      </c>
-      <c r="G7" s="68">
-        <v>140</v>
-      </c>
-      <c r="H7" s="68">
-        <v>30</v>
-      </c>
-      <c r="I7" s="68">
-        <v>30</v>
-      </c>
-      <c r="J7" s="68">
-        <v>0</v>
-      </c>
-      <c r="K7" s="76">
-        <v>2740</v>
-      </c>
-      <c r="L7" s="23" t="s">
+      <c r="AH7" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="M7" s="27">
+      <c r="AI7" s="27">
         <v>2417</v>
       </c>
-      <c r="N7" s="27">
+      <c r="AJ7" s="27">
         <v>2450</v>
       </c>
-      <c r="O7" s="27">
+      <c r="AK7" s="27">
         <v>2499</v>
       </c>
-      <c r="P7" s="27">
+      <c r="AL7" s="27">
         <v>1968</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="AM7" s="27">
         <v>1720</v>
       </c>
-      <c r="R7" s="27">
+      <c r="AN7" s="27">
         <v>1938</v>
       </c>
-      <c r="S7" s="28">
+      <c r="AO7" s="28">
         <v>2011</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="AP7" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="U7" s="27">
+      <c r="AQ7" s="27">
         <v>5347</v>
       </c>
-      <c r="V7" s="27">
+      <c r="AR7" s="27">
         <v>8949</v>
       </c>
-      <c r="W7" s="27">
+      <c r="AS7" s="27">
         <v>102217</v>
       </c>
-      <c r="X7" s="27">
+      <c r="AT7" s="27">
         <v>3781</v>
       </c>
-      <c r="Y7" s="27">
+      <c r="AU7" s="27">
         <v>75396</v>
       </c>
-      <c r="Z7" s="27">
+      <c r="AV7" s="27">
         <v>4454</v>
       </c>
-      <c r="AA7" s="28">
+      <c r="AW7" s="28">
         <v>2292</v>
       </c>
-      <c r="AB7" s="23" t="s">
+      <c r="AX7" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="AC7" s="27">
+      <c r="AY7" s="27">
         <v>2566</v>
       </c>
-      <c r="AD7" s="27">
+      <c r="AZ7" s="27">
         <v>2568</v>
       </c>
-      <c r="AE7" s="27">
+      <c r="BA7" s="27">
         <v>2599</v>
       </c>
-      <c r="AF7" s="27">
+      <c r="BB7" s="27">
         <v>2001</v>
       </c>
-      <c r="AG7" s="27">
+      <c r="BC7" s="27">
         <v>1720</v>
       </c>
-      <c r="AH7" s="27">
+      <c r="BD7" s="27">
         <v>1909</v>
       </c>
-      <c r="AI7" s="28">
+      <c r="BE7" s="28">
         <v>1950</v>
       </c>
-      <c r="AJ7" s="26" t="s">
+      <c r="BF7" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="AK7" s="27">
+      <c r="BG7" s="27">
         <v>5677</v>
       </c>
-      <c r="AL7" s="27">
+      <c r="BH7" s="27">
         <v>9379</v>
       </c>
-      <c r="AM7" s="27">
+      <c r="BI7" s="27">
         <v>106285</v>
       </c>
-      <c r="AN7" s="27">
+      <c r="BJ7" s="27">
         <v>3845</v>
       </c>
-      <c r="AO7" s="27">
+      <c r="BK7" s="27">
         <v>75396</v>
       </c>
-      <c r="AP7" s="27">
+      <c r="BL7" s="27">
         <v>4388</v>
       </c>
-      <c r="AQ7" s="28">
+      <c r="BM7" s="28">
         <v>2223</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:65">
       <c r="A8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="23">
         <v>8</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>140</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>170</v>
+      </c>
+      <c r="G8" s="14">
+        <v>40</v>
+      </c>
+      <c r="H8" s="14">
+        <v>100</v>
+      </c>
+      <c r="I8" s="14">
+        <v>60</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <v>60</v>
+      </c>
+      <c r="N8" s="14">
+        <v>10</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>610</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>20</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0</v>
+      </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
+      <c r="T8" s="65">
+        <v>1520</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <v>30</v>
+      </c>
+      <c r="W8" s="14">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>310</v>
+      </c>
+      <c r="AF8" s="65">
+        <v>3220</v>
+      </c>
+      <c r="AG8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="68">
-        <v>170</v>
-      </c>
-      <c r="E8" s="68">
-        <v>40</v>
-      </c>
-      <c r="F8" s="68">
-        <v>100</v>
-      </c>
-      <c r="G8" s="68">
-        <v>610</v>
-      </c>
-      <c r="H8" s="68">
-        <v>20</v>
-      </c>
-      <c r="I8" s="68">
-        <v>100</v>
-      </c>
-      <c r="J8" s="68">
-        <v>310</v>
-      </c>
-      <c r="K8" s="76">
-        <v>3220</v>
-      </c>
-      <c r="L8" s="23" t="s">
+      <c r="AH8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="27">
+      <c r="AI8" s="27">
         <v>65611</v>
       </c>
-      <c r="N8" s="27">
+      <c r="AJ8" s="27">
         <v>62222</v>
       </c>
-      <c r="O8" s="27">
+      <c r="AK8" s="27">
         <v>63978</v>
       </c>
-      <c r="P8" s="27">
+      <c r="AL8" s="27">
         <v>69854</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="AM8" s="27">
         <v>74879</v>
       </c>
-      <c r="R8" s="27">
+      <c r="AN8" s="27">
         <v>68388</v>
       </c>
-      <c r="S8" s="28">
+      <c r="AO8" s="28">
         <v>69839</v>
       </c>
-      <c r="T8" s="26" t="s">
+      <c r="AP8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="27">
+      <c r="AQ8" s="27">
         <v>10563</v>
       </c>
-      <c r="V8" s="27">
+      <c r="AR8" s="27">
         <v>12908</v>
       </c>
-      <c r="W8" s="27">
+      <c r="AS8" s="27">
         <v>5296</v>
       </c>
-      <c r="X8" s="27">
+      <c r="AT8" s="27">
         <v>11448</v>
       </c>
-      <c r="Y8" s="27">
+      <c r="AU8" s="27">
         <v>15034</v>
       </c>
-      <c r="Z8" s="27">
+      <c r="AV8" s="27">
         <v>13090</v>
       </c>
-      <c r="AA8" s="28">
+      <c r="AW8" s="28">
         <v>11752</v>
       </c>
-      <c r="AB8" s="23" t="s">
+      <c r="AX8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="27">
+      <c r="AY8" s="27">
         <v>69650</v>
       </c>
-      <c r="AD8" s="27">
+      <c r="AZ8" s="27">
         <v>65215</v>
       </c>
-      <c r="AE8" s="27">
+      <c r="BA8" s="27">
         <v>66524</v>
       </c>
-      <c r="AF8" s="27">
+      <c r="BB8" s="27">
         <v>71045</v>
       </c>
-      <c r="AG8" s="27">
+      <c r="BC8" s="27">
         <v>74879</v>
       </c>
-      <c r="AH8" s="27">
+      <c r="BD8" s="27">
         <v>67366</v>
       </c>
-      <c r="AI8" s="28">
+      <c r="BE8" s="28">
         <v>67731</v>
       </c>
-      <c r="AJ8" s="26" t="s">
+      <c r="BF8" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="AK8" s="27">
+      <c r="BG8" s="27">
         <v>11213</v>
       </c>
-      <c r="AL8" s="27">
+      <c r="BH8" s="27">
         <v>13529</v>
       </c>
-      <c r="AM8" s="27">
+      <c r="BI8" s="27">
         <v>5507</v>
       </c>
-      <c r="AN8" s="27">
+      <c r="BJ8" s="27">
         <v>11643</v>
       </c>
-      <c r="AO8" s="27">
+      <c r="BK8" s="27">
         <v>15034</v>
       </c>
-      <c r="AP8" s="27">
+      <c r="BL8" s="27">
         <v>12894</v>
       </c>
-      <c r="AQ8" s="28">
+      <c r="BM8" s="28">
         <v>11397</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:65">
       <c r="A9" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="23">
         <v>7</v>
       </c>
-      <c r="D9" s="68">
+      <c r="C9" s="74">
+        <v>10</v>
+      </c>
+      <c r="D9" s="74">
+        <v>30</v>
+      </c>
+      <c r="E9" s="74">
+        <v>0</v>
+      </c>
+      <c r="F9" s="74">
+        <v>0</v>
+      </c>
+      <c r="G9" s="74">
+        <v>0</v>
+      </c>
+      <c r="H9" s="74">
+        <v>40</v>
+      </c>
+      <c r="I9" s="74">
+        <v>30</v>
+      </c>
+      <c r="J9" s="74">
+        <v>0</v>
+      </c>
+      <c r="K9" s="74">
+        <v>0</v>
+      </c>
+      <c r="L9" s="74">
+        <v>10</v>
+      </c>
+      <c r="M9" s="74">
+        <v>0</v>
+      </c>
+      <c r="N9" s="74">
+        <v>10</v>
+      </c>
+      <c r="O9" s="74">
+        <v>0</v>
+      </c>
+      <c r="P9" s="74">
+        <v>700</v>
+      </c>
+      <c r="Q9" s="74">
+        <v>0</v>
+      </c>
+      <c r="R9" s="74">
+        <v>0</v>
+      </c>
+      <c r="S9" s="74">
+        <v>0</v>
+      </c>
+      <c r="T9" s="74">
+        <v>80</v>
+      </c>
+      <c r="U9" s="74">
         <v>20</v>
       </c>
-      <c r="E9" s="68">
-        <v>0</v>
-      </c>
-      <c r="F9" s="68">
-        <v>40</v>
-      </c>
-      <c r="G9" s="68">
-        <v>700</v>
-      </c>
-      <c r="H9" s="68">
-        <v>0</v>
-      </c>
-      <c r="I9" s="68">
+      <c r="V9" s="74">
+        <v>0</v>
+      </c>
+      <c r="W9" s="74">
+        <v>0</v>
+      </c>
+      <c r="X9" s="74">
+        <v>70</v>
+      </c>
+      <c r="Y9" s="74">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="74">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="74">
         <v>10</v>
       </c>
-      <c r="J9" s="68">
-        <v>0</v>
-      </c>
-      <c r="K9" s="76">
+      <c r="AB9" s="74">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="74">
+        <v>60</v>
+      </c>
+      <c r="AD9" s="74">
+        <v>140</v>
+      </c>
+      <c r="AE9" s="74">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="74">
         <v>1230</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="AH9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="27">
+      <c r="AI9" s="27">
         <v>1342</v>
       </c>
-      <c r="N9" s="27">
+      <c r="AJ9" s="27">
         <v>1276</v>
       </c>
-      <c r="O9" s="27">
+      <c r="AK9" s="27">
         <v>1350</v>
       </c>
-      <c r="P9" s="27">
+      <c r="AL9" s="27">
         <v>1490</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="AM9" s="27">
         <v>1394</v>
       </c>
-      <c r="R9" s="27">
+      <c r="AN9" s="27">
         <v>1574</v>
       </c>
-      <c r="S9" s="28">
+      <c r="AO9" s="28">
         <v>1448</v>
       </c>
-      <c r="T9" s="26" t="s">
+      <c r="AP9" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="U9" s="27">
+      <c r="AQ9" s="27">
         <v>-39</v>
       </c>
-      <c r="V9" s="27">
+      <c r="AR9" s="27">
         <v>-129</v>
       </c>
-      <c r="W9" s="27">
+      <c r="AS9" s="27">
         <v>-336</v>
       </c>
-      <c r="X9" s="27">
+      <c r="AT9" s="27">
         <v>-102</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="AU9" s="27">
         <v>127</v>
       </c>
-      <c r="Z9" s="27">
+      <c r="AV9" s="27">
         <v>130</v>
       </c>
-      <c r="AA9" s="28">
+      <c r="AW9" s="28">
         <v>16</v>
       </c>
-      <c r="AC9" s="27">
+      <c r="AY9" s="27">
         <v>1425</v>
       </c>
-      <c r="AD9" s="27">
+      <c r="AZ9" s="27">
         <v>1338</v>
       </c>
-      <c r="AE9" s="27">
+      <c r="BA9" s="27">
         <v>1403</v>
       </c>
-      <c r="AF9" s="27">
+      <c r="BB9" s="27">
         <v>1515</v>
       </c>
-      <c r="AG9" s="27">
+      <c r="BC9" s="27">
         <v>1394</v>
       </c>
-      <c r="AH9" s="27">
+      <c r="BD9" s="27">
         <v>1550</v>
       </c>
-      <c r="AI9" s="28">
+      <c r="BE9" s="28">
         <v>1404</v>
       </c>
-      <c r="AJ9" s="26" t="s">
+      <c r="BF9" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="AK9" s="27">
+      <c r="BG9" s="27">
         <v>-41</v>
       </c>
-      <c r="AL9" s="27">
+      <c r="BH9" s="27">
         <v>-135</v>
       </c>
-      <c r="AM9" s="27">
+      <c r="BI9" s="27">
         <v>-350</v>
       </c>
-      <c r="AN9" s="27">
+      <c r="BJ9" s="27">
         <v>-104</v>
       </c>
-      <c r="AO9" s="27">
+      <c r="BK9" s="27">
         <v>127</v>
       </c>
-      <c r="AP9" s="27">
+      <c r="BL9" s="27">
         <v>128</v>
       </c>
-      <c r="AQ9" s="28">
+      <c r="BM9" s="28">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:65">
       <c r="A10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="23">
         <v>5</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="14">
+        <v>450</v>
+      </c>
+      <c r="D10" s="14">
+        <v>370</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="65">
+        <v>1470</v>
+      </c>
+      <c r="G10" s="14">
+        <v>70</v>
+      </c>
+      <c r="H10" s="14">
+        <v>940</v>
+      </c>
+      <c r="I10" s="65">
+        <v>2280</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14">
+        <v>60</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>620</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="65">
+        <v>29800</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>160</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
+        <v>710</v>
+      </c>
+      <c r="U10" s="65">
+        <v>1960</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="14">
+        <v>0</v>
+      </c>
+      <c r="X10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>70</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>400</v>
+      </c>
+      <c r="AB10" s="65">
+        <v>29360</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="65">
+        <v>68710</v>
+      </c>
+      <c r="AG10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="76">
-        <v>1470</v>
-      </c>
-      <c r="E10" s="68">
-        <v>70</v>
-      </c>
-      <c r="F10" s="68">
-        <v>940</v>
-      </c>
-      <c r="G10" s="76">
-        <v>29800</v>
-      </c>
-      <c r="H10" s="68">
-        <v>160</v>
-      </c>
-      <c r="I10" s="68">
-        <v>400</v>
-      </c>
-      <c r="J10" s="68">
-        <v>0</v>
-      </c>
-      <c r="K10" s="76">
-        <v>68710</v>
-      </c>
-      <c r="L10" s="23" t="s">
+      <c r="AH10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="27">
+      <c r="AI10" s="27">
         <v>3650</v>
       </c>
-      <c r="N10" s="27">
+      <c r="AJ10" s="27">
         <v>3468</v>
       </c>
-      <c r="O10" s="27">
+      <c r="AK10" s="27">
         <v>3576</v>
       </c>
-      <c r="P10" s="27">
+      <c r="AL10" s="27">
         <v>3836</v>
       </c>
-      <c r="Q10" s="27">
+      <c r="AM10" s="27">
         <v>3946</v>
       </c>
-      <c r="R10" s="27">
+      <c r="AN10" s="27">
         <v>3739</v>
       </c>
-      <c r="S10" s="28">
+      <c r="AO10" s="28">
         <v>3554</v>
       </c>
-      <c r="T10" s="26" t="s">
+      <c r="AP10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="U10" s="27">
+      <c r="AQ10" s="27">
         <v>42574</v>
       </c>
-      <c r="V10" s="27">
+      <c r="AR10" s="27">
         <v>42931</v>
       </c>
-      <c r="W10" s="27">
+      <c r="AS10" s="27">
         <v>43194</v>
       </c>
-      <c r="X10" s="27">
+      <c r="AT10" s="27">
         <v>42329</v>
       </c>
-      <c r="Y10" s="27">
+      <c r="AU10" s="27">
         <v>41845</v>
       </c>
-      <c r="Z10" s="27">
+      <c r="AV10" s="27">
         <v>39759</v>
       </c>
-      <c r="AA10" s="28">
+      <c r="AW10" s="28">
         <v>42529</v>
       </c>
-      <c r="AB10" s="23" t="s">
+      <c r="AX10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AC10" s="27">
+      <c r="AY10" s="27">
         <v>3875</v>
       </c>
-      <c r="AD10" s="27">
+      <c r="AZ10" s="27">
         <v>3635</v>
       </c>
-      <c r="AE10" s="27">
+      <c r="BA10" s="27">
         <v>3718</v>
       </c>
-      <c r="AF10" s="27">
+      <c r="BB10" s="27">
         <v>3901</v>
       </c>
-      <c r="AG10" s="27">
+      <c r="BC10" s="27">
         <v>3946</v>
       </c>
-      <c r="AH10" s="27">
+      <c r="BD10" s="27">
         <v>3683</v>
       </c>
-      <c r="AI10" s="28">
+      <c r="BE10" s="28">
         <v>3446</v>
       </c>
-      <c r="AJ10" s="26" t="s">
+      <c r="BF10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="AK10" s="27">
+      <c r="BG10" s="27">
         <v>45195</v>
       </c>
-      <c r="AL10" s="27">
+      <c r="BH10" s="27">
         <v>44996</v>
       </c>
-      <c r="AM10" s="27">
+      <c r="BI10" s="27">
         <v>44912</v>
       </c>
-      <c r="AN10" s="27">
+      <c r="BJ10" s="27">
         <v>43051</v>
       </c>
-      <c r="AO10" s="27">
+      <c r="BK10" s="27">
         <v>41845</v>
       </c>
-      <c r="AP10" s="27">
+      <c r="BL10" s="27">
         <v>39165</v>
       </c>
-      <c r="AQ10" s="28">
+      <c r="BM10" s="28">
         <v>41245</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:65">
       <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="23">
         <v>3</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="14">
+        <v>220</v>
+      </c>
+      <c r="D11" s="14">
+        <v>160</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>70</v>
+      </c>
+      <c r="G11" s="14">
+        <v>50</v>
+      </c>
+      <c r="H11" s="14">
+        <v>190</v>
+      </c>
+      <c r="I11" s="14">
+        <v>230</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>10</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14">
+        <v>670</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>50</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14">
+        <v>310</v>
+      </c>
+      <c r="U11" s="14">
+        <v>60</v>
+      </c>
+      <c r="V11" s="14">
+        <v>290</v>
+      </c>
+      <c r="W11" s="14">
+        <v>0</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>80</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>220</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="65">
+        <v>2650</v>
+      </c>
+      <c r="AG11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="68">
-        <v>70</v>
-      </c>
-      <c r="E11" s="68">
-        <v>50</v>
-      </c>
-      <c r="F11" s="68">
-        <v>190</v>
-      </c>
-      <c r="G11" s="68">
-        <v>670</v>
-      </c>
-      <c r="H11" s="68">
-        <v>50</v>
-      </c>
-      <c r="I11" s="68">
-        <v>80</v>
-      </c>
-      <c r="J11" s="68">
-        <v>0</v>
-      </c>
-      <c r="K11" s="76">
-        <v>2650</v>
-      </c>
-      <c r="L11" s="23" t="s">
+      <c r="AH11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="27">
+      <c r="AI11" s="27">
         <v>8110</v>
       </c>
-      <c r="N11" s="27">
+      <c r="AJ11" s="27">
         <v>7728</v>
       </c>
-      <c r="O11" s="27">
+      <c r="AK11" s="27">
         <v>7348</v>
       </c>
-      <c r="P11" s="27">
+      <c r="AL11" s="27">
         <v>7406</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="AM11" s="27">
         <v>7630</v>
       </c>
-      <c r="R11" s="27">
+      <c r="AN11" s="27">
         <v>6923</v>
       </c>
-      <c r="S11" s="28">
+      <c r="AO11" s="28">
         <v>6573</v>
       </c>
-      <c r="T11" s="26" t="s">
+      <c r="AP11" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="U11" s="27">
+      <c r="AQ11" s="27">
         <v>-239</v>
       </c>
-      <c r="V11" s="27">
+      <c r="AR11" s="27">
         <v>-144</v>
       </c>
-      <c r="W11" s="27">
+      <c r="AS11" s="27">
         <v>483</v>
       </c>
-      <c r="X11" s="27">
+      <c r="AT11" s="27">
         <v>549</v>
       </c>
-      <c r="Y11" s="27">
+      <c r="AU11" s="27">
         <v>653</v>
       </c>
-      <c r="Z11" s="27">
+      <c r="AV11" s="27">
         <v>616</v>
       </c>
-      <c r="AA11" s="28">
+      <c r="AW11" s="28">
         <v>503</v>
       </c>
-      <c r="AB11" s="23" t="s">
+      <c r="AX11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AC11" s="27">
+      <c r="AY11" s="27">
         <v>8609</v>
       </c>
-      <c r="AD11" s="27">
+      <c r="AZ11" s="27">
         <v>8100</v>
       </c>
-      <c r="AE11" s="27">
+      <c r="BA11" s="27">
         <v>7640</v>
       </c>
-      <c r="AF11" s="27">
+      <c r="BB11" s="27">
         <v>7532</v>
       </c>
-      <c r="AG11" s="27">
+      <c r="BC11" s="27">
         <v>7630</v>
       </c>
-      <c r="AH11" s="27">
+      <c r="BD11" s="27">
         <v>6819</v>
       </c>
-      <c r="AI11" s="28">
+      <c r="BE11" s="28">
         <v>6375</v>
       </c>
-      <c r="AJ11" s="26" t="s">
+      <c r="BF11" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="AK11" s="27">
+      <c r="BG11" s="27">
         <v>-254</v>
       </c>
-      <c r="AL11" s="27">
+      <c r="BH11" s="27">
         <v>-151</v>
       </c>
-      <c r="AM11" s="27">
+      <c r="BI11" s="27">
         <v>502</v>
       </c>
-      <c r="AN11" s="27">
+      <c r="BJ11" s="27">
         <v>559</v>
       </c>
-      <c r="AO11" s="27">
+      <c r="BK11" s="27">
         <v>653</v>
       </c>
-      <c r="AP11" s="27">
+      <c r="BL11" s="27">
         <v>607</v>
       </c>
-      <c r="AQ11" s="28">
+      <c r="BM11" s="28">
         <v>488</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:65">
       <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="23">
         <v>3</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14">
+        <v>30</v>
+      </c>
+      <c r="H12" s="14">
+        <v>30</v>
+      </c>
+      <c r="I12" s="14">
+        <v>30</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="14">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>10</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
+      <c r="T12" s="14">
+        <v>960</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>120</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="65">
+        <v>1250</v>
+      </c>
+      <c r="AG12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="68">
-        <v>10</v>
-      </c>
-      <c r="E12" s="68">
-        <v>30</v>
-      </c>
-      <c r="F12" s="68">
-        <v>30</v>
-      </c>
-      <c r="G12" s="68">
-        <v>50</v>
-      </c>
-      <c r="H12" s="68">
-        <v>0</v>
-      </c>
-      <c r="I12" s="68">
-        <v>0</v>
-      </c>
-      <c r="J12" s="68">
-        <v>0</v>
-      </c>
-      <c r="K12" s="76">
-        <v>1250</v>
-      </c>
-      <c r="L12" s="23" t="s">
+      <c r="AH12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="27">
+      <c r="AI12" s="27">
         <v>-249</v>
       </c>
-      <c r="N12" s="27">
+      <c r="AJ12" s="27">
         <v>129</v>
       </c>
-      <c r="O12" s="27">
+      <c r="AK12" s="27">
         <v>130</v>
       </c>
-      <c r="P12" s="27">
+      <c r="AL12" s="27">
         <v>159</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="AM12" s="27">
         <v>226</v>
       </c>
-      <c r="R12" s="27">
+      <c r="AN12" s="27">
         <v>173</v>
       </c>
-      <c r="S12" s="28">
+      <c r="AO12" s="28">
         <v>154</v>
       </c>
-      <c r="T12" s="26" t="s">
+      <c r="AP12" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="U12" s="27">
+      <c r="AQ12" s="27">
         <v>6210</v>
       </c>
-      <c r="V12" s="27">
+      <c r="AR12" s="27">
         <v>-49912</v>
       </c>
-      <c r="W12" s="27">
+      <c r="AS12" s="27">
         <v>-13781</v>
       </c>
-      <c r="X12" s="27">
+      <c r="AT12" s="27">
         <v>-25458</v>
       </c>
-      <c r="Y12" s="27">
+      <c r="AU12" s="27">
         <v>-681</v>
       </c>
-      <c r="Z12" s="27">
+      <c r="AV12" s="27">
         <v>-383</v>
       </c>
-      <c r="AA12" s="28">
+      <c r="AW12" s="28">
         <v>-196</v>
       </c>
-      <c r="AB12" s="23" t="s">
+      <c r="AX12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AC12" s="27">
+      <c r="AY12" s="27">
         <v>-264</v>
       </c>
-      <c r="AD12" s="27">
+      <c r="AZ12" s="27">
         <v>135</v>
       </c>
-      <c r="AE12" s="27">
+      <c r="BA12" s="27">
         <v>135</v>
       </c>
-      <c r="AF12" s="27">
+      <c r="BB12" s="27">
         <v>162</v>
       </c>
-      <c r="AG12" s="27">
+      <c r="BC12" s="27">
         <v>226</v>
       </c>
-      <c r="AH12" s="27">
+      <c r="BD12" s="27">
         <v>170</v>
       </c>
-      <c r="AI12" s="28">
+      <c r="BE12" s="28">
         <v>150</v>
       </c>
-      <c r="AJ12" s="26" t="s">
+      <c r="BF12" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="AK12" s="27">
+      <c r="BG12" s="27">
         <v>6592</v>
       </c>
-      <c r="AL12" s="27">
+      <c r="BH12" s="27">
         <v>-52313</v>
       </c>
-      <c r="AM12" s="27">
+      <c r="BI12" s="27">
         <v>-14329</v>
       </c>
-      <c r="AN12" s="27">
+      <c r="BJ12" s="27">
         <v>-25892</v>
       </c>
-      <c r="AO12" s="27">
+      <c r="BK12" s="27">
         <v>-681</v>
       </c>
-      <c r="AP12" s="27">
+      <c r="BL12" s="27">
         <v>-378</v>
       </c>
-      <c r="AQ12" s="28">
+      <c r="BM12" s="28">
         <v>-190</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:65">
       <c r="A13" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="23">
         <v>2</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="14">
+        <v>160</v>
+      </c>
+      <c r="D13" s="14">
+        <v>370</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>640</v>
+      </c>
+      <c r="G13" s="14">
+        <v>30</v>
+      </c>
+      <c r="H13" s="14">
+        <v>430</v>
+      </c>
+      <c r="I13" s="14">
+        <v>480</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14">
+        <v>610</v>
+      </c>
+      <c r="L13" s="14">
+        <v>60</v>
+      </c>
+      <c r="M13" s="14">
+        <v>120</v>
+      </c>
+      <c r="N13" s="14">
+        <v>390</v>
+      </c>
+      <c r="O13" s="14">
+        <v>10</v>
+      </c>
+      <c r="P13" s="65">
+        <v>17530</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>180</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
+        <v>990</v>
+      </c>
+      <c r="U13" s="14">
+        <v>730</v>
+      </c>
+      <c r="V13" s="14">
+        <v>50</v>
+      </c>
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <v>140</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>70</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>100</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>20</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="65">
+        <v>4970</v>
+      </c>
+      <c r="AF13" s="65">
+        <v>28110</v>
+      </c>
+      <c r="AG13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="68">
-        <v>640</v>
-      </c>
-      <c r="E13" s="68">
-        <v>30</v>
-      </c>
-      <c r="F13" s="68">
-        <v>430</v>
-      </c>
-      <c r="G13" s="76">
-        <v>17530</v>
-      </c>
-      <c r="H13" s="68">
-        <v>180</v>
-      </c>
-      <c r="I13" s="68">
-        <v>100</v>
-      </c>
-      <c r="J13" s="76">
-        <v>4970</v>
-      </c>
-      <c r="K13" s="76">
-        <v>28110</v>
-      </c>
-      <c r="L13" s="23" t="s">
+      <c r="AH13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="27">
+      <c r="AI13" s="27">
         <v>11052</v>
       </c>
-      <c r="N13" s="27">
+      <c r="AJ13" s="27">
         <v>11443</v>
       </c>
-      <c r="O13" s="27">
+      <c r="AK13" s="27">
         <v>10757</v>
       </c>
-      <c r="P13" s="27">
+      <c r="AL13" s="27">
         <v>10977</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="AM13" s="27">
         <v>10892</v>
       </c>
-      <c r="R13" s="27">
+      <c r="AN13" s="27">
         <v>10958</v>
       </c>
-      <c r="S13" s="28">
+      <c r="AO13" s="28">
         <v>11022</v>
       </c>
-      <c r="T13" s="26" t="s">
+      <c r="AP13" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="U13" s="27">
+      <c r="AQ13" s="27">
         <v>1872</v>
       </c>
-      <c r="V13" s="27">
+      <c r="AR13" s="27">
         <v>2457</v>
       </c>
-      <c r="W13" s="27">
+      <c r="AS13" s="27">
         <v>1551</v>
       </c>
-      <c r="X13" s="27">
+      <c r="AT13" s="27">
         <v>2396</v>
       </c>
-      <c r="Y13" s="27">
+      <c r="AU13" s="27">
         <v>2510</v>
       </c>
-      <c r="Z13" s="27">
+      <c r="AV13" s="27">
         <v>2747</v>
       </c>
-      <c r="AA13" s="28">
+      <c r="AW13" s="28">
         <v>2912</v>
       </c>
-      <c r="AB13" s="23" t="s">
+      <c r="AX13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="AC13" s="27">
+      <c r="AY13" s="27">
         <v>11733</v>
       </c>
-      <c r="AD13" s="27">
+      <c r="AZ13" s="27">
         <v>11993</v>
       </c>
-      <c r="AE13" s="27">
+      <c r="BA13" s="27">
         <v>11185</v>
       </c>
-      <c r="AF13" s="27">
+      <c r="BB13" s="27">
         <v>11165</v>
       </c>
-      <c r="AG13" s="27">
+      <c r="BC13" s="27">
         <v>10892</v>
       </c>
-      <c r="AH13" s="27">
+      <c r="BD13" s="27">
         <v>10794</v>
       </c>
-      <c r="AI13" s="28">
+      <c r="BE13" s="28">
         <v>10689</v>
       </c>
-      <c r="AJ13" s="26" t="s">
+      <c r="BF13" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="AK13" s="27">
+      <c r="BG13" s="27">
         <v>1988</v>
       </c>
-      <c r="AL13" s="27">
+      <c r="BH13" s="27">
         <v>2576</v>
       </c>
-      <c r="AM13" s="27">
+      <c r="BI13" s="27">
         <v>1613</v>
       </c>
-      <c r="AN13" s="27">
+      <c r="BJ13" s="27">
         <v>2437</v>
       </c>
-      <c r="AO13" s="27">
+      <c r="BK13" s="27">
         <v>2510</v>
       </c>
-      <c r="AP13" s="27">
+      <c r="BL13" s="27">
         <v>2706</v>
       </c>
-      <c r="AQ13" s="28">
+      <c r="BM13" s="28">
         <v>2824</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
+    <row r="15" spans="1:65">
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5989,13 +6908,13 @@
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="A3" s="51"/>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="52"/>
       <c r="H3" s="53"/>
     </row>
@@ -8215,76 +9134,76 @@
       <c r="C64" s="44"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="70"/>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="70" t="s">
+      <c r="A68" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="77" t="s">
         <v>196</v>
       </c>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8335,13 +9254,13 @@
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="A3" s="51"/>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="52"/>
       <c r="H3" s="53"/>
     </row>
@@ -10503,64 +11422,64 @@
       <c r="C64" s="44"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="B65" s="72"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="70" t="s">
+      <c r="A66" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="B68" s="72"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="F68" s="72"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="77"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="6">
